--- a/gams/res_sum_Q_rI_DA.xlsx
+++ b/gams/res_sum_Q_rI_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C841C2-8BF6-43CA-B649-C26DE2BC681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7049B8-C691-4B86-95EB-E430888799C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{ADE6E44A-6620-4008-A24C-7EE2E7D2A91D}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{ADE6E44A-6620-4008-A24C-7EE2E7D2A91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rI_DA.xlsx
+++ b/gams/res_sum_Q_rI_DA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7049B8-C691-4B86-95EB-E430888799C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB80B62-90D6-4C1D-84B8-9CD16D7D05E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{ADE6E44A-6620-4008-A24C-7EE2E7D2A91D}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{ADE6E44A-6620-4008-A24C-7EE2E7D2A91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rI_DA.xlsx
+++ b/gams/res_sum_Q_rI_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB80B62-90D6-4C1D-84B8-9CD16D7D05E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6B9D6-10F2-41BF-B223-D6DA33E502B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{ADE6E44A-6620-4008-A24C-7EE2E7D2A91D}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{C8DC5FF1-4413-4F73-909A-D0E8FF197660}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,25 +413,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8010ABF2-A425-47C4-97B9-32B955CAB919}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8A15F9-8170-4341-9940-0C31D4D62AE3}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.9158500000000003</v>
+        <v>0.39043636363636364</v>
       </c>
     </row>
   </sheetData>
